--- a/src/main/resources/Person.xlsx
+++ b/src/main/resources/Person.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{FCB22E32-744B-4933-B013-3718EB69CCD5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{8950D235-2905-4C9F-B6DC-EAAC0DF27BCD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -388,7 +388,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/Person.xlsx
+++ b/src/main/resources/Person.xlsx
@@ -43,7 +43,7 @@
     <t>女</t>
   </si>
   <si>
-    <t>22</t>
+    <t>221</t>
   </si>
   <si>
     <t>ww</t>
@@ -68,6 +68,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -83,9 +98,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -101,9 +154,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -123,17 +176,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,15 +190,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,51 +207,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,6 +221,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -233,37 +299,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,132 +402,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,6 +412,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -425,16 +440,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -456,9 +471,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,47 +512,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -520,10 +520,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -532,133 +532,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1018,7 +1018,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="3"/>
